--- a/exports/MontosMotoboy_fabric_guido.xlsx
+++ b/exports/MontosMotoboy_fabric_guido.xlsx
@@ -472,19 +472,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4485</v>
+        <v>4112</v>
       </c>
       <c r="C2" t="n">
-        <v>4562</v>
+        <v>4182</v>
       </c>
       <c r="D2" t="n">
-        <v>4631</v>
+        <v>4245</v>
       </c>
       <c r="E2" t="n">
-        <v>4631</v>
+        <v>4245</v>
       </c>
       <c r="F2" t="n">
-        <v>4631</v>
+        <v>4245</v>
       </c>
     </row>
     <row r="3">
@@ -494,19 +494,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4078</v>
+        <v>3738</v>
       </c>
       <c r="C3" t="n">
-        <v>4147</v>
+        <v>3802</v>
       </c>
       <c r="D3" t="n">
-        <v>4210</v>
+        <v>3859</v>
       </c>
       <c r="E3" t="n">
-        <v>4210</v>
+        <v>3859</v>
       </c>
       <c r="F3" t="n">
-        <v>4210</v>
+        <v>3859</v>
       </c>
     </row>
     <row r="4">
@@ -516,19 +516,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4485</v>
+        <v>4112</v>
       </c>
       <c r="C4" t="n">
-        <v>4562</v>
+        <v>4182</v>
       </c>
       <c r="D4" t="n">
-        <v>4631</v>
+        <v>4245</v>
       </c>
       <c r="E4" t="n">
-        <v>4631</v>
+        <v>4245</v>
       </c>
       <c r="F4" t="n">
-        <v>4631</v>
+        <v>4245</v>
       </c>
     </row>
     <row r="5">
@@ -538,19 +538,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4078</v>
+        <v>3738</v>
       </c>
       <c r="C5" t="n">
-        <v>4147</v>
+        <v>3802</v>
       </c>
       <c r="D5" t="n">
-        <v>4210</v>
+        <v>3859</v>
       </c>
       <c r="E5" t="n">
-        <v>4210</v>
+        <v>3859</v>
       </c>
       <c r="F5" t="n">
-        <v>4210</v>
+        <v>3859</v>
       </c>
     </row>
     <row r="6">
@@ -560,19 +560,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5741</v>
+        <v>5502</v>
       </c>
       <c r="C6" t="n">
-        <v>5369</v>
+        <v>5145</v>
       </c>
       <c r="D6" t="n">
-        <v>5237</v>
+        <v>5019</v>
       </c>
       <c r="E6" t="n">
-        <v>5237</v>
+        <v>5019</v>
       </c>
       <c r="F6" t="n">
-        <v>5237</v>
+        <v>5019</v>
       </c>
     </row>
     <row r="7">
@@ -582,19 +582,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5320</v>
+        <v>5098</v>
       </c>
       <c r="C7" t="n">
-        <v>4982</v>
+        <v>4775</v>
       </c>
       <c r="D7" t="n">
-        <v>4927</v>
+        <v>4722</v>
       </c>
       <c r="E7" t="n">
-        <v>4927</v>
+        <v>4722</v>
       </c>
       <c r="F7" t="n">
-        <v>4927</v>
+        <v>4722</v>
       </c>
     </row>
     <row r="8">
@@ -604,19 +604,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4817</v>
+        <v>4616</v>
       </c>
       <c r="C8" t="n">
-        <v>4499</v>
+        <v>4311</v>
       </c>
       <c r="D8" t="n">
-        <v>4403</v>
+        <v>4219</v>
       </c>
       <c r="E8" t="n">
-        <v>4403</v>
+        <v>4219</v>
       </c>
       <c r="F8" t="n">
-        <v>4403</v>
+        <v>4219</v>
       </c>
     </row>
     <row r="9">
@@ -626,19 +626,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4651</v>
+        <v>4457</v>
       </c>
       <c r="C9" t="n">
-        <v>4250</v>
+        <v>4073</v>
       </c>
       <c r="D9" t="n">
-        <v>4147</v>
+        <v>3974</v>
       </c>
       <c r="E9" t="n">
-        <v>4147</v>
+        <v>3974</v>
       </c>
       <c r="F9" t="n">
-        <v>4147</v>
+        <v>3974</v>
       </c>
     </row>
     <row r="10">
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7114</v>
+        <v>6817</v>
       </c>
       <c r="C10" t="n">
-        <v>6624</v>
+        <v>6348</v>
       </c>
       <c r="D10" t="n">
-        <v>6506</v>
+        <v>6235</v>
       </c>
       <c r="E10" t="n">
-        <v>6506</v>
+        <v>6235</v>
       </c>
       <c r="F10" t="n">
-        <v>6506</v>
+        <v>6235</v>
       </c>
     </row>
     <row r="11">
@@ -670,19 +670,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6624</v>
+        <v>6348</v>
       </c>
       <c r="C11" t="n">
-        <v>6238</v>
+        <v>5978</v>
       </c>
       <c r="D11" t="n">
-        <v>6134</v>
+        <v>5879</v>
       </c>
       <c r="E11" t="n">
-        <v>6134</v>
+        <v>5879</v>
       </c>
       <c r="F11" t="n">
-        <v>6134</v>
+        <v>5879</v>
       </c>
     </row>
     <row r="12">
@@ -692,19 +692,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5941</v>
+        <v>5694</v>
       </c>
       <c r="C12" t="n">
-        <v>5630</v>
+        <v>5396</v>
       </c>
       <c r="D12" t="n">
-        <v>5575</v>
+        <v>5343</v>
       </c>
       <c r="E12" t="n">
-        <v>5575</v>
+        <v>5343</v>
       </c>
       <c r="F12" t="n">
-        <v>5575</v>
+        <v>5343</v>
       </c>
     </row>
     <row r="13">
@@ -714,19 +714,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5761</v>
+        <v>5521</v>
       </c>
       <c r="C13" t="n">
-        <v>5369</v>
+        <v>5145</v>
       </c>
       <c r="D13" t="n">
-        <v>5327</v>
+        <v>5105</v>
       </c>
       <c r="E13" t="n">
-        <v>5327</v>
+        <v>5105</v>
       </c>
       <c r="F13" t="n">
-        <v>5327</v>
+        <v>5105</v>
       </c>
     </row>
   </sheetData>
